--- a/src/test/resources/UseCaseData/ParaBank_TestCases.xlsx
+++ b/src/test/resources/UseCaseData/ParaBank_TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Believe_IT_Project\POC\ParaBank_SeleniumFramework\src\test\resources\UseCaseData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6D3662-72C0-44C3-AA1E-6AFF8AB6EC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EC854D-E277-4384-B7C9-BA5A9CB33FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="119">
   <si>
     <t>Project Name</t>
   </si>
@@ -286,9 +286,6 @@
     <t>amount</t>
   </si>
   <si>
-    <t>fromAccount</t>
-  </si>
-  <si>
     <t>Bill Payment Complete</t>
   </si>
   <si>
@@ -349,15 +346,6 @@
     <t>TC_UCI_001</t>
   </si>
   <si>
-    <t>Verify that the user able to update all field from Update profile page</t>
-  </si>
-  <si>
-    <t>Jon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marteen </t>
-  </si>
-  <si>
     <t>321 Elm Street</t>
   </si>
   <si>
@@ -370,9 +358,6 @@
     <t>884-54548-545</t>
   </si>
   <si>
-    <t>Your updated address and phone number have been added to the system.</t>
-  </si>
-  <si>
     <t>updateSuccessMsg</t>
   </si>
   <si>
@@ -395,6 +380,24 @@
   </si>
   <si>
     <t>mike@123</t>
+  </si>
+  <si>
+    <t>harry</t>
+  </si>
+  <si>
+    <t>harry@123</t>
+  </si>
+  <si>
+    <t>mikej</t>
+  </si>
+  <si>
+    <t>mike</t>
+  </si>
+  <si>
+    <t>Verify that the user able to update address and phone number field from Update profile page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your updated address and phone number have been added to the system. </t>
   </si>
 </sst>
 </file>
@@ -1007,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168922AD-A63C-493F-9B16-63CA16C25E27}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1032,7 +1035,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>29</v>
@@ -1074,7 +1077,7 @@
         <v>59</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1112,23 +1115,19 @@
         <v>39</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{EC275DCE-4591-4E47-94E1-958E97815AD6}"/>
-    <hyperlink ref="N2" r:id="rId2" xr:uid="{07E84A54-5A43-450D-8AF7-BD9F3BE13E4C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1154,7 +1153,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>29</v>
@@ -1186,10 +1185,10 @@
         <v>40</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>33</v>
@@ -1210,7 +1209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF86A546-9405-4D3F-9C75-26EF322A018B}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1227,7 +1226,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>29</v>
@@ -1259,10 +1258,10 @@
         <v>60</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>49</v>
@@ -1280,10 +1279,10 @@
         <v>62</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>48</v>
@@ -1301,10 +1300,10 @@
         <v>64</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>49</v>
@@ -1324,10 +1323,10 @@
         <v>66</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>48</v>
@@ -1366,7 +1365,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>29</v>
@@ -1392,10 +1391,10 @@
         <v>68</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1406,13 +1405,13 @@
         <v>19</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1439,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>29</v>
@@ -1469,20 +1468,20 @@
         <v>20</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>20</v>
@@ -1491,10 +1490,10 @@
         <v>71</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F3" s="12">
         <v>2000</v>
@@ -1511,29 +1510,33 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7A1FD8-068A-4407-9B8B-5684EDD485E3}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>29</v>
@@ -1541,41 +1544,44 @@
       <c r="C1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O1" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>75</v>
       </c>
@@ -1585,38 +1591,41 @@
       <c r="C2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="I2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="12">
+        <v>10001</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="12">
-        <v>10001</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="12">
+      <c r="L2" s="12">
         <v>14554</v>
       </c>
-      <c r="K2" s="12">
+      <c r="M2" s="12">
         <v>14554</v>
       </c>
-      <c r="L2" s="12">
-        <v>2000</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>82</v>
+      <c r="N2" s="12">
+        <v>200</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1630,7 +1639,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1647,7 +1656,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>29</v>
@@ -1656,112 +1665,112 @@
         <v>30</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5" s="15"/>
     </row>
@@ -1775,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C2D041-F53E-4671-8961-3FF77C44FF94}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1794,9 +1803,9 @@
     <col min="11" max="11" width="61.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>29</v>
@@ -1804,11 +1813,11 @@
       <c r="C1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>46</v>
+      <c r="D1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>47</v>
@@ -1826,42 +1835,42 @@
         <v>57</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>107</v>
       </c>
       <c r="I2" s="12">
         <v>33101</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/UseCaseData/ParaBank_TestCases.xlsx
+++ b/src/test/resources/UseCaseData/ParaBank_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Believe_IT_Project\POC\ParaBank_SeleniumFramework\src\test\resources\UseCaseData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EC854D-E277-4384-B7C9-BA5A9CB33FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B765AC4-3A7E-48A0-A7C6-B9D29CDD9E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="115">
   <si>
     <t>Project Name</t>
   </si>
@@ -376,22 +376,10 @@
     <t>TC_TF_002</t>
   </si>
   <si>
-    <t>mikejack</t>
-  </si>
-  <si>
-    <t>mike@123</t>
-  </si>
-  <si>
     <t>harry</t>
   </si>
   <si>
     <t>harry@123</t>
-  </si>
-  <si>
-    <t>mikej</t>
-  </si>
-  <si>
-    <t>mike</t>
   </si>
   <si>
     <t>Verify that the user able to update address and phone number field from Update profile page</t>
@@ -1011,7 +999,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1115,13 +1103,13 @@
         <v>39</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>43</v>
@@ -1137,7 +1125,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1185,10 +1173,10 @@
         <v>40</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>33</v>
@@ -1210,7 +1198,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1513,7 +1501,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1591,11 +1579,11 @@
       <c r="C2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>116</v>
+      <c r="D2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>83</v>
@@ -1785,7 +1773,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1846,13 +1834,13 @@
         <v>25</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>101</v>
@@ -1870,7 +1858,7 @@
         <v>104</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
